--- a/11117-이제석(5회).xlsx
+++ b/11117-이제석(5회).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>코드</t>
   </si>
@@ -182,6 +182,11 @@
   </si>
   <si>
     <t>300001-400000</t>
+  </si>
+  <si>
+    <t>가격
+(단위:원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,45 +413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -653,6 +619,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,15 +713,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,15 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,10 +749,10 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,9 +764,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,9 +776,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,14 +800,26 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,28 +830,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -865,6 +867,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +890,98 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -1360,13 +1468,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3009,10 +3110,10 @@
     <dataField name="합계 : 판매량" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="16">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="4">
@@ -3024,7 +3125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3039,7 +3140,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3054,7 +3155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3069,7 +3170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3084,7 +3185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3099,7 +3200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3114,7 +3215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3129,7 +3230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3144,7 +3245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3159,7 +3260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3174,7 +3275,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3189,7 +3290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3215,16 +3316,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:H22" totalsRowShown="0" headerRowDxfId="53" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:H22" totalsRowShown="0" headerRowDxfId="82" tableBorderDxfId="90">
   <autoFilter ref="B18:H22"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="코드" dataDxfId="60"/>
-    <tableColumn id="2" name="분류" dataDxfId="59"/>
-    <tableColumn id="3" name="제품명" dataDxfId="58"/>
-    <tableColumn id="4" name="판매일자" dataDxfId="57"/>
-    <tableColumn id="5" name="가격_x000a_(단위:원)" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="판매량" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="판매지점" dataDxfId="54"/>
+    <tableColumn id="1" name="코드" dataDxfId="89"/>
+    <tableColumn id="2" name="분류" dataDxfId="88"/>
+    <tableColumn id="3" name="제품명" dataDxfId="87"/>
+    <tableColumn id="4" name="판매일자" dataDxfId="86"/>
+    <tableColumn id="5" name="가격_x000a_(단위:원)" dataDxfId="85" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="판매량" dataDxfId="84" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="판매지점" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3495,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3516,31 +3617,31 @@
     <row r="2" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="67" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3554,21 +3655,21 @@
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>43958</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>245000</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="30">
         <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>CHOOSE(WEEKDAY(E5),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>금요일</v>
+        <f>CHOOSE(WEEKDAY(E5,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>목요일</v>
       </c>
       <c r="J5" s="6">
         <f>_xlfn.RANK.EQ(G5,판매량,0)</f>
@@ -3588,18 +3689,18 @@
       <c r="E6" s="3">
         <v>43956</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>110000</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(E6),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>수요일</v>
+        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(E6,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
+        <v>화요일</v>
       </c>
       <c r="J6" s="8">
         <f>_xlfn.RANK.EQ(G6,판매량,0)</f>
@@ -3619,10 +3720,10 @@
       <c r="E7" s="3">
         <v>43963</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>321000</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -3630,7 +3731,7 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>수요일</v>
+        <v>화요일</v>
       </c>
       <c r="J7" s="8">
         <f>_xlfn.RANK.EQ(G7,판매량,0)</f>
@@ -3650,10 +3751,10 @@
       <c r="E8" s="3">
         <v>43959</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>96000</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3661,7 +3762,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>토요일</v>
+        <v>금요일</v>
       </c>
       <c r="J8" s="8">
         <f>_xlfn.RANK.EQ(G8,판매량,0)</f>
@@ -3681,10 +3782,10 @@
       <c r="E9" s="3">
         <v>43960</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>128000</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3692,7 +3793,7 @@
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>일요일</v>
+        <v>토요일</v>
       </c>
       <c r="J9" s="8">
         <f>_xlfn.RANK.EQ(G9,판매량,0)</f>
@@ -3712,10 +3813,10 @@
       <c r="E10" s="3">
         <v>43961</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>232000</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3723,7 +3824,7 @@
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>월요일</v>
+        <v>일요일</v>
       </c>
       <c r="J10" s="8">
         <f>_xlfn.RANK.EQ(G10,판매량,0)</f>
@@ -3743,10 +3844,10 @@
       <c r="E11" s="3">
         <v>43956</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>120000</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3754,7 +3855,7 @@
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>수요일</v>
+        <v>화요일</v>
       </c>
       <c r="J11" s="8">
         <f>_xlfn.RANK.EQ(G11,판매량,0)</f>
@@ -3771,13 +3872,13 @@
       <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>43960</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>168000</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <v>42</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -3785,7 +3886,7 @@
       </c>
       <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>일요일</v>
+        <v>토요일</v>
       </c>
       <c r="J12" s="11">
         <f>_xlfn.RANK.EQ(G12,판매량,0)</f>
@@ -3793,47 +3894,47 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="35">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="68">
         <f>ROUNDUP(AVERAGE(F5:F12),-3)</f>
         <v>178000</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="12">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6">
         <f>MAX(판매량)-MIN(판매량)</f>
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="10" t="str">
         <f>MONTH(E5)&amp;"월"</f>
         <v>5월</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="63">
         <f>VLOOKUP(H14,D5:H12,4,FALSE)/SUM(판매량)*100%</f>
         <v>0.09</v>
       </c>
@@ -3847,7 +3948,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C5="산악용"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3879,25 +3980,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3911,13 +4012,13 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>43958</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>245000</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -3937,10 +4038,10 @@
       <c r="E4" s="3">
         <v>43956</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>110000</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="31">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -3960,10 +4061,10 @@
       <c r="E5" s="3">
         <v>43963</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>321000</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="31">
         <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -3983,10 +4084,10 @@
       <c r="E6" s="3">
         <v>43959</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>96000</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -4006,10 +4107,10 @@
       <c r="E7" s="3">
         <v>43960</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>128000</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -4029,10 +4130,10 @@
       <c r="E8" s="3">
         <v>43961</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>232000</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4052,10 +4153,10 @@
       <c r="E9" s="3">
         <v>43956</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>120000</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>67</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -4072,13 +4173,13 @@
       <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>43960</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>168000</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>42</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -4087,10 +4188,10 @@
     </row>
     <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4108,124 +4209,124 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="34">
         <v>43958</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="35">
         <v>245000</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="36">
         <v>36</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>43956</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="39">
         <v>110000</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="40">
         <v>63</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="38">
         <v>43961</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="39">
         <v>232000</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="40">
         <v>54</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="51">
         <v>43956</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="52">
         <v>120000</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="53">
         <v>67</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="54" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="91" priority="1">
       <formula>$C3="산악용"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4240,8 +4341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4259,166 +4360,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="61"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <v>1</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="62">
         <v>57</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="62">
         <v>2</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="62">
         <v>110</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="62">
         <v>1</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="62">
         <v>42</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="62">
         <v>1</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="62">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="62">
         <v>2</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="62">
         <v>90</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="62">
         <v>1</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="62">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="62">
         <v>110</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="62">
         <v>4</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="62">
         <v>189</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="62">
         <v>2</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="62">
         <v>101</v>
       </c>
     </row>
